--- a/InputData/add-outputs/BDbDT/BAU Deaths by Demographic Trait.xlsx
+++ b/InputData/add-outputs/BDbDT/BAU Deaths by Demographic Trait.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\add-outputs\BDbDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C6D73-85CC-4C6A-BBF1-F91AACFF4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363E76F3-8194-4985-ADB1-35CF2079500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="6" xr2:uid="{07D21EFD-220B-4C60-85BD-FCD4C246A818}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="6" xr2:uid="{07D21EFD-220B-4C60-85BD-FCD4C246A818}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
   <si>
     <t>BDbDT BAU Deaths by Demographic Trait</t>
   </si>
@@ -476,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,13 +491,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -512,7 +511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -832,20 +831,20 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -853,49 +852,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,17 +902,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -932,38 +931,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37348B8C-8BD9-4480-ACE4-881D2E1437B4}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -971,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -979,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -999,12 +998,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>160899</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1095,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +1117,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1140,7 +1139,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1188,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1210,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1232,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>17490</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1303,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1326,7 +1325,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>66473</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1375,7 +1374,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1397,7 +1396,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1419,7 +1418,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>68793</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1468,7 +1467,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1490,7 +1489,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1512,7 +1511,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1539,11 +1538,11 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1552,12 +1551,12 @@
         <v>160899</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1613,12 +1612,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -1632,38 +1631,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D888DDC9-62E9-45ED-83C0-492CD4C41855}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1699,12 +1698,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>146233</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1795,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1817,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1840,7 +1839,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1910,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1932,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2004,7 +2003,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2075,7 +2074,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2097,7 +2096,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>82824</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2190,7 +2189,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2239,11 +2238,11 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G37" s="1" t="s">
         <v>70</v>
       </c>
@@ -2252,12 +2251,12 @@
         <v>146233</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -2313,12 +2312,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2332,32 +2331,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE5EC8D-97AF-4D95-9E4B-A3D9B3CDAA50}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.85546875" style="6"/>
+    <col min="6" max="6" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I2" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>37873.699999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -2390,15 +2389,15 @@
       <c r="F5" s="7"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>8117</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>71</v>
       </c>
@@ -2431,15 +2430,15 @@
       <c r="F9" s="7"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F10" s="7"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>28290</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -2472,15 +2471,15 @@
       <c r="F13" s="7"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>112363</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>71</v>
       </c>
@@ -2513,15 +2512,15 @@
       <c r="F17" s="7"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F19" s="7"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>151617</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>71</v>
       </c>
@@ -2554,15 +2553,15 @@
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F22" s="7"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>71</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>307132</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -2629,11 +2628,11 @@
         <v>0.47612427229985804</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <f>G26/(I3*1000)</f>
         <v>8.1093740511225462E-3</v>
       </c>
@@ -2647,34 +2646,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954D571-19B2-43F0-8564-4C89FF49E3CB}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="13.5703125" customWidth="1"/>
+    <col min="1" max="10" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -2684,26 +2683,26 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2712,13 +2711,13 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2726,7 +2725,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2738,7 +2737,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2750,7 +2749,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2762,7 +2761,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2777,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2793,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>80</v>
       </c>
@@ -2810,7 +2809,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="D12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2842,1635 +2841,1635 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2019</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>37383.699999999997</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>37466.800000000003</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>37466.800000000003</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>37466.800000000003</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>37466.800000000003</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>37466.800000000003</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>37584.5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>37569.699999999997</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>37398.400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2020</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>37705.1</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>37873.699999999997</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>37873.699999999997</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>37873.699999999997</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>37873.699999999997</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>37873.5</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>38094.199999999997</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>38059.4</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>37739.800000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2021</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>38019.199999999997</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>38284.6</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>38284.6</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>38284.5</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>38284.6</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>38284.199999999997</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>38609.9</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>38550.199999999997</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>38078.9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2022</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>38322.800000000003</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>38694.300000000003</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>38694.400000000001</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>38694.300000000003</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>38694.5</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>38693.800000000003</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>39133.599999999999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>39044</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>38412.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2023</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>38615.599999999999</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>39102.6</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>39102.699999999997</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>39102.5</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>39102.800000000003</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>39101.800000000003</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>39665.599999999999</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>39541.599999999999</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>38739</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2024</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>38897.4</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>39509.1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>39509.199999999997</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>39509</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>39509.5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>39508</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>40206</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>40042.9</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>39059.300000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2025</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>39168.400000000001</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>39913.5</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>39913.599999999999</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>39913.199999999997</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>39913.9</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>39912</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>40754.199999999997</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>40548</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>39372.699999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2026</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>39428.5</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>40315.199999999997</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>40315.300000000003</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>40314.9</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>40315.800000000003</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>40313.4</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>41309.800000000003</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>41056.400000000001</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>39679.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2027</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>39677.699999999997</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>40713.9</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>40714.1</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>40713.5</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>40714.699999999997</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>40711.800000000003</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>41872.300000000003</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>41567.9</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>39978</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2028</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>39915.9</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>41109.199999999997</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>41109.5</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>41108.800000000003</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>41110.199999999997</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>41106.6</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>42441.1</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>42082.2</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>40269.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2029</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>40143.199999999997</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>41500.699999999997</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>41501</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>41500.199999999997</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>41501.9</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>41497.699999999997</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>43015.6</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>42598.9</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>40552.199999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>2030</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>40359.5</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>41888.1</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>41888.5</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>41887.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>41889.5</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>41884.6</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>43595.5</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>43118</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>40826.800000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>2031</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>40564.9</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>42271</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>42271.5</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>42270.400000000001</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>42272.7</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>42267</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>44180.1</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>43639.199999999997</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>41092.699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>2032</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>40759.5</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>42649.3</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>42649.9</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>42648.6</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>42651.199999999997</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>42644.7</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>44769.2</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>44162.6</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>41349.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>2033</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>40943.599999999999</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>43022.8</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>43023.6</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>43022.1</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>43024.9</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>43017.5</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>45362.400000000001</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>44688.3</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>41597.199999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>2034</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>41117.5</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>43391.5</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>43392.4</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>43390.7</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>43393.9</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>43385.5</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>45959.5</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>45216.5</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>41835.4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>2035</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>41281.5</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>43755.5</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>43756.5</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>43754.6</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>43758</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>43748.6</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>46560.4</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>45747.4</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>42064.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>2036</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>41436.1</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>44114.7</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>44115.9</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>44113.9</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>44117.5</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>44106.9</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>47165</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>46281.5</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>42283.3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>2037</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>41581.699999999997</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>44469.4</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>44470.7</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>44468.5</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>44472.3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>44460.5</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>47773.2</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>46819.199999999997</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>42492.800000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>2038</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>41718.699999999997</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>44819.5</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>44821.1</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>44818.6</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>44822.7</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>44809.599999999999</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>48384.800000000003</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>47361</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>42692.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>2039</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>41847.599999999999</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>45165.3</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>45167.1</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>45164.4</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>45168.6</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>45154.1</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>49000</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>47907.199999999997</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>42882.3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>2040</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>41968.7</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>45506.8</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>45508.7</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>45505.8</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>45510.2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>45494.2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>49618.5</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>48458.3</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>43062</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>2041</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>42082.5</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>45843.9</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>45846.1</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>45843</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>45847.6</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>45829.9</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>50240.2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>49014.6</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>43231.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>2042</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>42189</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>46176.9</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>46179.3</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>46175.9</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>46180.7</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>46161.2</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>50865.1</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>49576.7</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>43390.9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>2043</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>42288.800000000003</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>46505.599999999999</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>46508.2</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>46504.6</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>46509.5</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>46488.3</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>51493.2</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>50144.7</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>43539.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>2044</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>42388.3</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>46831.8</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>46834.7</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>46830.8</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>46835.9</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>46812.7</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>52117.5</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>50711.4</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>43685</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>2045</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>42484.4</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>47156.2</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>47159.3</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>47155.3</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>47160.5</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>47135.199999999997</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>52746.3</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>51284.2</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>43824.800000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>2046</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>42577</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>47479.1</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>47482.5</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>47478.2</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>47483.5</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>47456.1</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>53380.3</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>51863.5</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>43958.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>2047</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>42666.5</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>47800.800000000003</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>47804.5</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>47799.9</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>47805.4</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>47775.7</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>54019.9</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>52450</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>44087.6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>2048</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>42752.9</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>48121.7</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>48125.7</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>48120.800000000003</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>48126.5</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>48094.400000000001</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>54665.8</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>53044.3</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>44211.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>2049</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>42836.6</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>48442.3</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>48446.5</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>48441.3</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>48447.199999999997</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>48412.7</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>55319.1</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>53647.3</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>44329.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>2050</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>42917.8</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>48763.1</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>48767.7</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>48762.1</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>48768.2</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>48731.1</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>55980.4</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>54259.6</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>44443.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>2051</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>42996.9</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>49084.7</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>49089.599999999999</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>49083.8</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>49090.1</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>49050.3</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>56650.8</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>54882.1</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>44553.8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>2052</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>43074.3</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>49407.9</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>49413.1</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>49406.9</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>49413.4</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>49370.8</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>57331.4</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>55515.8</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>44660.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>2053</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>43150.400000000001</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>49733.2</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>49738.7</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>49732.2</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>49738.9</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>49693.3</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>58023</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>56161.3</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>44764.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>2054</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>43225.9</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>50061.4</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>50067.199999999997</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>50060.4</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>50067.4</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>50018.7</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>58726.7</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>56819.5</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>44865.7</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>2055</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>43301.1</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>50393.2</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>50399.4</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>50392.2</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>50399.5</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>50347.6</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>59443.5</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>57491.1</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>44965.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>2056</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>43376.5</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>50729.2</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>50735.8</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>50728.2</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>50735.8</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>50680.5</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>60174.2</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <v>58176.5</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>45065.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>2057</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>43452.6</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>51070</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>51076.9</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>51069</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>51076.9</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>51018.2</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>60919.5</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>58876.3</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>45165.1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>2058</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>43529.7</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>51416</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>51423.4</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>51415.1</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>51423.3</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>51360.9</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>61680.1</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <v>59590.8</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="9">
         <v>45265.3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>2059</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>43608</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>51767.6</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>51775.4</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>51766.7</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>51775.199999999997</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>51709.1</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>62456.5</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <v>60320.3</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>45366.6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>2060</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>43687.6</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>52125</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>52133.2</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>52124.1</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>52133</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>52063</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>63249</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>61064.7</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="9">
         <v>45469.4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>2061</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>43768.5</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>52488.2</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>52496.800000000003</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>52487.4</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>52496.6</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>52422.5</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>64057.9</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="9">
         <v>61824</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="9">
         <v>45573.9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>2062</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>43850.7</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>52857.2</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>52866.3</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>52856.5</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>52866.1</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>52787.8</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>64883.1</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <v>62598.3</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="9">
         <v>45680.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>2063</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>43934</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>53231.9</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>53241.4</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>53231.199999999997</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>53241.2</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>53158.5</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>65724.800000000003</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <v>63387.1</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>45788.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>2064</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>44018.1</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>53611.9</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>53622</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>53611.3</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>53621.7</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>53534.5</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>66582.7</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="9">
         <v>64190.400000000001</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="9">
         <v>45897.7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>2065</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>44102.7</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>53997</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>54007.5</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>53996.5</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>54007.199999999997</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>53915.3</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>67456.600000000006</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="9">
         <v>65007.8</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>46008.4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>2066</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>44187.5</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>54386.7</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>54397.7</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>54386.3</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>54397.3</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>54300.6</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>68346.2</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="9">
         <v>65839</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>46120.1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>2067</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>44272.1</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>54780.6</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>54792.2</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>54780.3</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>54791.7</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>54690</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>69251.100000000006</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="9">
         <v>66683.7</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>46232.2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>2068</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>44356.3</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>55178.3</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>55190.400000000001</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>55178.1</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>55189.9</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>55083</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>70171.100000000006</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="9">
         <v>67541.600000000006</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>46344.3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4482,7 +4481,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4494,7 +4493,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4506,7 +4505,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4518,7 +4517,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
@@ -4532,183 +4531,183 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>1</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>2</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>3</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>4</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>5</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>6</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>7</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>8</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>9</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4720,7 +4719,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4732,7 +4731,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4744,30 +4743,30 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -4782,345 +4781,345 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="36" width="12.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="36" width="12.7265625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1" s="8"/>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>2020</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>2021</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>2022</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>2023</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>2024</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>2025</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <v>2026</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="12">
         <v>2027</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="12">
         <v>2028</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="12">
         <v>2029</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="12">
         <v>2030</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="12">
         <v>2031</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="12">
         <v>2032</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="12">
         <v>2033</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="12">
         <v>2034</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="12">
         <v>2035</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="12">
         <v>2036</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="12">
         <v>2037</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="12">
         <v>2038</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="12">
         <v>2039</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="12">
         <v>2040</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AA1" s="12">
         <v>2041</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="12">
         <v>2042</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AC1" s="12">
         <v>2043</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AD1" s="12">
         <v>2044</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AE1" s="12">
         <v>2045</v>
       </c>
-      <c r="AF1" s="13">
+      <c r="AF1" s="12">
         <v>2046</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="12">
         <v>2047</v>
       </c>
-      <c r="AH1" s="13">
+      <c r="AH1" s="12">
         <v>2048</v>
       </c>
-      <c r="AI1" s="13">
+      <c r="AI1" s="12">
         <v>2049</v>
       </c>
-      <c r="AJ1" s="13">
+      <c r="AJ1" s="12">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>37873700</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>38284500</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>38694300</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>39102500</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>39509000</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>39913200</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>40314900</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>40713500</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>41108800</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>41500200</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>41887500</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>42270400</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>42648600</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <v>43022100</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>43390700</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>43754600</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>44113900</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <v>44468500</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>44818600</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="13">
         <v>45164400</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="13">
         <v>45505800</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="13">
         <v>45843000</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="13">
         <v>46175900</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="13">
         <v>46504600</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="13">
         <v>46830800</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="13">
         <v>47155300</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AF2" s="13">
         <v>47478200</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="13">
         <v>47799900</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="13">
         <v>48120800</v>
       </c>
-      <c r="AI2" s="14">
+      <c r="AI2" s="13">
         <v>48441300</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AJ2" s="13">
         <v>48762100</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f>'totals by age'!G26</f>
         <v>307132</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>$F$4*G2</f>
         <v>310463.33086020109</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f t="shared" ref="H3:AJ3" si="0">$F$4*H2</f>
         <v>313786.55234635115</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f t="shared" si="0"/>
         <v>317096.79883401934</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <f t="shared" si="0"/>
         <v>320393.25938580069</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f t="shared" si="0"/>
         <v>323671.06837726443</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <f t="shared" si="0"/>
         <v>326928.60393360036</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <f t="shared" si="0"/>
         <v>330161.00043037778</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <f t="shared" si="0"/>
         <v>333366.63599278656</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>336540.64499639592</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <f t="shared" si="0"/>
         <v>339681.40556639567</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <f t="shared" si="0"/>
         <v>342786.48489057046</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <f t="shared" si="0"/>
         <v>345853.45015670505</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <f t="shared" si="0"/>
         <v>348882.30136479932</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <f t="shared" si="0"/>
         <v>351871.41664004308</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="14">
         <f t="shared" si="0"/>
         <v>354822.41785724659</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="14">
         <f t="shared" si="0"/>
         <v>357736.11595381488</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="14">
         <f t="shared" si="0"/>
         <v>360611.69999234297</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="14">
         <f t="shared" si="0"/>
         <v>363450.79184764094</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="14">
         <f t="shared" si="0"/>
         <v>366255.0133945191</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="14">
         <f t="shared" si="0"/>
         <v>369023.55369557237</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="14">
         <f t="shared" si="0"/>
         <v>371758.03462561086</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <f t="shared" si="0"/>
         <v>374457.64524722961</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <f t="shared" si="0"/>
         <v>377123.19649783359</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="14">
         <f t="shared" si="0"/>
         <v>379768.47431330977</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="14">
         <f t="shared" si="0"/>
         <v>382399.96619289898</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="14">
         <f t="shared" si="0"/>
         <v>385018.48307400645</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="14">
         <f t="shared" si="0"/>
         <v>387627.26870625262</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="14">
         <f t="shared" si="0"/>
         <v>390229.56683925784</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="14">
         <f t="shared" si="0"/>
         <v>392828.6212226426</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="14">
         <f t="shared" si="0"/>
         <v>395430.10841824271</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>108</v>
       </c>
@@ -5130,13 +5129,13 @@
       <c r="E4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>F3/F2</f>
         <v>8.1093740511225462E-3</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -5148,10 +5147,10 @@
         <f>'totals by age'!E27</f>
         <v>0.47612427229985804</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5166,132 +5165,132 @@
       <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>F3*$B$5</f>
         <v>160899.00000000003</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" ref="G6:AJ6" si="1">G3*$B$5</f>
         <v>162644.2033785978</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>164385.1584529634</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>166119.31624055741</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f t="shared" si="1"/>
         <v>167846.25191095669</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
         <v>169563.41648162183</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="1"/>
         <v>171269.9602917064</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <f t="shared" si="1"/>
         <v>172963.33435867107</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>174642.68902166942</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>176305.47529816205</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <f t="shared" si="1"/>
         <v>177950.84352730261</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <f t="shared" si="1"/>
         <v>179577.51921782133</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <f t="shared" si="1"/>
         <v>181184.22787844864</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <f t="shared" si="1"/>
         <v>182770.96950918451</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <f t="shared" si="1"/>
         <v>184336.89444918244</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="14">
         <f t="shared" si="1"/>
         <v>185882.85235928893</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <f t="shared" si="1"/>
         <v>187409.26806992714</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <f t="shared" si="1"/>
         <v>188915.71675067398</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <f t="shared" si="1"/>
         <v>190403.04806237575</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="14">
         <f t="shared" si="1"/>
         <v>191872.11166587897</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="14">
         <f t="shared" si="1"/>
         <v>193322.48273076041</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="14">
         <f t="shared" si="1"/>
         <v>194755.01091786649</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="14">
         <f t="shared" si="1"/>
         <v>196169.27139677404</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="14">
         <f t="shared" si="1"/>
         <v>197565.68899790623</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="14">
         <f t="shared" si="1"/>
         <v>198951.48583845785</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="14">
         <f t="shared" si="1"/>
         <v>200330.06056181467</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="14">
         <f t="shared" si="1"/>
         <v>201701.83799839995</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AG6" s="14">
         <f t="shared" si="1"/>
         <v>203068.51746990657</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AH6" s="14">
         <f t="shared" si="1"/>
         <v>204431.7982980274</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AI6" s="14">
         <f t="shared" si="1"/>
         <v>205793.37980445536</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ6" s="14">
         <f t="shared" si="1"/>
         <v>207156.23580215295</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5306,132 +5305,132 @@
       <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f>F3*$C$5</f>
         <v>146233</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" ref="G7:AJ7" si="2">G3*$C$5</f>
         <v>147819.1274816033</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f t="shared" si="2"/>
         <v>149401.39389338775</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f t="shared" si="2"/>
         <v>150977.48259346193</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f t="shared" si="2"/>
         <v>152547.00747484402</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f t="shared" si="2"/>
         <v>154107.65189564263</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f t="shared" si="2"/>
         <v>155658.64364189398</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f t="shared" si="2"/>
         <v>157197.66607170674</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f t="shared" si="2"/>
         <v>158723.94697111717</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <f t="shared" si="2"/>
         <v>160235.16969823386</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <f t="shared" si="2"/>
         <v>161730.56203909309</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <f t="shared" si="2"/>
         <v>163208.96567274915</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <f t="shared" si="2"/>
         <v>164669.22227825641</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <f t="shared" si="2"/>
         <v>166111.33185561484</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <f t="shared" si="2"/>
         <v>167534.52219086068</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="14">
         <f t="shared" si="2"/>
         <v>168939.56549795769</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="14">
         <f t="shared" si="2"/>
         <v>170326.84788388773</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <f t="shared" si="2"/>
         <v>171695.98324166902</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <f t="shared" si="2"/>
         <v>173047.74378526522</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="14">
         <f t="shared" si="2"/>
         <v>174382.90172864016</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="14">
         <f t="shared" si="2"/>
         <v>175701.07096481198</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="14">
         <f t="shared" si="2"/>
         <v>177003.0237077444</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="14">
         <f t="shared" si="2"/>
         <v>178288.37385045559</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="14">
         <f t="shared" si="2"/>
         <v>179557.50749992739</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="14">
         <f t="shared" si="2"/>
         <v>180816.98847485194</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7" s="14">
         <f t="shared" si="2"/>
         <v>182069.90563108434</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF7" s="14">
         <f t="shared" si="2"/>
         <v>183316.64507560653</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG7" s="14">
         <f t="shared" si="2"/>
         <v>184558.75123634606</v>
       </c>
-      <c r="AH7" s="15">
+      <c r="AH7" s="14">
         <f t="shared" si="2"/>
         <v>185797.76854123044</v>
       </c>
-      <c r="AI7" s="15">
+      <c r="AI7" s="14">
         <f t="shared" si="2"/>
         <v>187035.24141818727</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AJ7" s="14">
         <f t="shared" si="2"/>
         <v>188273.87261608979</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5446,132 +5445,132 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>($B6+$C6)*F$3</f>
         <v>2910</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" ref="G8:AJ8" si="3">($B6+$C6)*G$3</f>
         <v>2941.5635388145333</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="3"/>
         <v>2973.0502433086813</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f t="shared" si="3"/>
         <v>3004.4140128902109</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
         <v>3035.6471641270855</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
         <v>3066.7035964270722</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f t="shared" si="3"/>
         <v>3097.567942926094</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f t="shared" si="3"/>
         <v>3128.194103031919</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <f t="shared" si="3"/>
         <v>3158.5667098804711</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <f t="shared" si="3"/>
         <v>3188.6396628795178</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <f t="shared" si="3"/>
         <v>3218.3975951649822</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <f t="shared" si="3"/>
         <v>3247.8174564407486</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <f t="shared" si="3"/>
         <v>3276.8761964107021</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <f t="shared" si="3"/>
         <v>3305.5738150748407</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="14">
         <f t="shared" si="3"/>
         <v>3333.8949455690886</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="14">
         <f t="shared" si="3"/>
         <v>3361.854954757523</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <f t="shared" si="3"/>
         <v>3389.4615260721816</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="14">
         <f t="shared" si="3"/>
         <v>3416.7069760810273</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <f t="shared" si="3"/>
         <v>3443.6066716481355</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="14">
         <f t="shared" si="3"/>
         <v>3470.1759796375845</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="14">
         <f t="shared" si="3"/>
         <v>3496.407216617336</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="14">
         <f t="shared" si="3"/>
         <v>3522.3157494514658</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="14">
         <f t="shared" si="3"/>
         <v>3547.8938947079373</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <f t="shared" si="3"/>
         <v>3573.1493358187872</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <f t="shared" si="3"/>
         <v>3598.2126911286723</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <f t="shared" si="3"/>
         <v>3623.145428093901</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="14">
         <f t="shared" si="3"/>
         <v>3647.9552301465128</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AG8" s="14">
         <f t="shared" si="3"/>
         <v>3672.6728310146618</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" s="14">
         <f t="shared" si="3"/>
         <v>3697.3289644265014</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" s="14">
         <f t="shared" si="3"/>
         <v>3721.9543641101868</v>
       </c>
-      <c r="AJ8" s="15">
+      <c r="AJ8" s="14">
         <f t="shared" si="3"/>
         <v>3746.6028140899884</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5586,132 +5585,132 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" ref="F9:AJ9" si="4">($B7+$C7)*F$3</f>
         <v>8117</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="4"/>
         <v>8205.0416647964139</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="4"/>
         <v>8292.8690120056926</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="4"/>
         <v>8380.3534510755471</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="4"/>
         <v>8467.4735502472686</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f t="shared" si="4"/>
         <v>8554.1007189685715</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f t="shared" si="4"/>
         <v>8640.1920937220293</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <f t="shared" si="4"/>
         <v>8725.6190839553565</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f t="shared" si="4"/>
         <v>8810.3388261511282</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <f t="shared" si="4"/>
         <v>8894.2227297570607</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <f t="shared" si="4"/>
         <v>8977.2279312557257</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <f t="shared" si="4"/>
         <v>9059.2901353709822</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <f t="shared" si="4"/>
         <v>9140.3450468266892</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="14">
         <f t="shared" si="4"/>
         <v>9220.3926656228468</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <f t="shared" si="4"/>
         <v>9299.3901282420247</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="14">
         <f t="shared" si="4"/>
         <v>9377.380298201655</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <f t="shared" si="4"/>
         <v>9454.3846072604465</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <f t="shared" si="4"/>
         <v>9530.3816236596904</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <f t="shared" si="4"/>
         <v>9605.4142109168097</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="14">
         <f t="shared" si="4"/>
         <v>9679.5252325492347</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="14">
         <f t="shared" si="4"/>
         <v>9752.6932567982531</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="14">
         <f t="shared" si="4"/>
         <v>9824.9611471812877</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="14">
         <f t="shared" si="4"/>
         <v>9896.3074719396318</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="14">
         <f t="shared" si="4"/>
         <v>9966.7536628319922</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9" s="14">
         <f t="shared" si="4"/>
         <v>10036.664059756507</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" s="14">
         <f t="shared" si="4"/>
         <v>10106.210116782886</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AF9" s="14">
         <f t="shared" si="4"/>
         <v>10175.413265669844</v>
       </c>
-      <c r="AG9" s="15">
+      <c r="AG9" s="14">
         <f t="shared" si="4"/>
         <v>10244.359233452238</v>
       </c>
-      <c r="AH9" s="15">
+      <c r="AH9" s="14">
         <f t="shared" si="4"/>
         <v>10313.133747164919</v>
       </c>
-      <c r="AI9" s="15">
+      <c r="AI9" s="14">
         <f t="shared" si="4"/>
         <v>10381.822533842746</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AJ9" s="14">
         <f t="shared" si="4"/>
         <v>10450.575615796713</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5726,132 +5725,132 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" ref="F10:AJ10" si="5">($B8+$C8)*F$3</f>
         <v>28290</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" si="5"/>
         <v>28596.849660846441</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f t="shared" si="5"/>
         <v>28902.952365361714</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" si="5"/>
         <v>29207.859939747101</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f t="shared" si="5"/>
         <v>29511.497688369502</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <f t="shared" si="5"/>
         <v>29813.417437430195</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <f t="shared" si="5"/>
         <v>30113.469795662953</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <f t="shared" si="5"/>
         <v>30411.20658926907</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <f t="shared" si="5"/>
         <v>30706.478426982314</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>30998.837135003974</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="14">
         <f t="shared" si="5"/>
         <v>31288.133322067821</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <f t="shared" si="5"/>
         <v>31574.142901274496</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <f t="shared" si="5"/>
         <v>31856.64178572466</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="14">
         <f t="shared" si="5"/>
         <v>32135.629975418298</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="14">
         <f t="shared" si="5"/>
         <v>32410.958079089181</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="14">
         <f t="shared" si="5"/>
         <v>32682.77548800355</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <f t="shared" si="5"/>
         <v>32951.156897794506</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="14">
         <f t="shared" si="5"/>
         <v>33216.027612828955</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="14">
         <f t="shared" si="5"/>
         <v>33477.537024373109</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="14">
         <f t="shared" si="5"/>
         <v>33735.834523693215</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="14">
         <f t="shared" si="5"/>
         <v>33990.84541515616</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="14">
         <f t="shared" si="5"/>
         <v>34242.719090028171</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="14">
         <f t="shared" si="5"/>
         <v>34491.380852676128</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AC10" s="14">
         <f t="shared" si="5"/>
         <v>34736.905398733157</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AD10" s="14">
         <f t="shared" si="5"/>
         <v>34980.562553962249</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AE10" s="14">
         <f t="shared" si="5"/>
         <v>35222.949883428337</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AF10" s="14">
         <f t="shared" si="5"/>
         <v>35464.142082764549</v>
       </c>
-      <c r="AG10" s="15">
+      <c r="AG10" s="14">
         <f t="shared" si="5"/>
         <v>35704.437934503359</v>
       </c>
-      <c r="AH10" s="15">
+      <c r="AH10" s="14">
         <f t="shared" si="5"/>
         <v>35944.136221177228</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="AI10" s="14">
         <f t="shared" si="5"/>
         <v>36183.535725318623</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AJ10" s="14">
         <f t="shared" si="5"/>
         <v>36423.159316359372</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5866,451 +5865,479 @@
       <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" ref="F11:AJ11" si="6">($B9+$C9)*F$3</f>
         <v>112363</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="6"/>
         <v>113581.75392158673</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="6"/>
         <v>114797.54106147538</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="6"/>
         <v>116008.58135064701</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="6"/>
         <v>117214.57811093186</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <f t="shared" si="6"/>
         <v>118413.75127331103</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="6"/>
         <v>119605.50748144492</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <f t="shared" si="6"/>
         <v>120788.06666631461</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="6"/>
         <v>121960.83547158055</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <f t="shared" si="6"/>
         <v>123122.03382822381</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <f t="shared" si="6"/>
         <v>124271.0683799048</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="14">
         <f t="shared" si="6"/>
         <v>125407.04909211404</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <f t="shared" si="6"/>
         <v>126529.08593034217</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="14">
         <f t="shared" si="6"/>
         <v>127637.17889458913</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <f t="shared" si="6"/>
         <v>128730.7346285153</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="14">
         <f t="shared" si="6"/>
         <v>129810.34648846033</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <f t="shared" si="6"/>
         <v>130876.311152594</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="14">
         <f t="shared" si="6"/>
         <v>131928.33194274656</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <f t="shared" si="6"/>
         <v>132967.00221525755</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="14">
         <f t="shared" si="6"/>
         <v>133992.91532646664</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="14">
         <f t="shared" si="6"/>
         <v>135005.77459820404</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="14">
         <f t="shared" si="6"/>
         <v>136006.1733868093</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <f t="shared" si="6"/>
         <v>136993.81501411271</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="14">
         <f t="shared" si="6"/>
         <v>137968.99615828399</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11" s="14">
         <f t="shared" si="6"/>
         <v>138936.76034820997</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11" s="14">
         <f t="shared" si="6"/>
         <v>139899.48100924914</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="14">
         <f t="shared" si="6"/>
         <v>140857.45481957134</v>
       </c>
-      <c r="AG11" s="15">
+      <c r="AG11" s="14">
         <f t="shared" si="6"/>
         <v>141811.86849185583</v>
       </c>
-      <c r="AH11" s="15">
+      <c r="AH11" s="14">
         <f t="shared" si="6"/>
         <v>142763.90873878179</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="AI11" s="14">
         <f t="shared" si="6"/>
         <v>143714.76227302852</v>
       </c>
-      <c r="AJ11" s="15">
+      <c r="AJ11" s="14">
         <f t="shared" si="6"/>
         <v>144666.50584178467</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" ref="F12:AJ12" si="7">($B10+$C10)*F$3</f>
         <v>151617</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f t="shared" si="7"/>
         <v>153261.52545169866</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f t="shared" si="7"/>
         <v>154902.04767688396</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f t="shared" si="7"/>
         <v>156536.16473964782</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <f t="shared" si="7"/>
         <v>158163.47631733894</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f t="shared" si="7"/>
         <v>159781.58047404929</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <f t="shared" si="7"/>
         <v>161389.67656447616</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <f t="shared" si="7"/>
         <v>162985.36265271151</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <f t="shared" si="7"/>
         <v>164567.83809345274</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="14">
         <f t="shared" si="7"/>
         <v>166134.70095079171</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="14">
         <f t="shared" si="7"/>
         <v>167685.15057942583</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="14">
         <f t="shared" si="7"/>
         <v>169217.98601140105</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <f t="shared" si="7"/>
         <v>170732.00627876338</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="14">
         <f t="shared" si="7"/>
         <v>172227.21138151278</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="14">
         <f t="shared" si="7"/>
         <v>173702.8006743466</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="14">
         <f t="shared" si="7"/>
         <v>175159.57480256748</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <f t="shared" si="7"/>
         <v>176597.93408882679</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="14">
         <f t="shared" si="7"/>
         <v>178017.47821047323</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="14">
         <f t="shared" si="7"/>
         <v>179419.0078128094</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="14">
         <f t="shared" si="7"/>
         <v>180803.32354113803</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="14">
         <f t="shared" si="7"/>
         <v>182170.02507280777</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="14">
         <f t="shared" si="7"/>
         <v>183519.91305312127</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="14">
         <f t="shared" si="7"/>
         <v>184852.58715942726</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="14">
         <f t="shared" si="7"/>
         <v>186168.44771437702</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AD12" s="14">
         <f t="shared" si="7"/>
         <v>187474.3002030433</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" s="14">
         <f t="shared" si="7"/>
         <v>188773.34720663677</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AF12" s="14">
         <f t="shared" si="7"/>
         <v>190065.98904780889</v>
       </c>
-      <c r="AG12" s="15">
+      <c r="AG12" s="14">
         <f t="shared" si="7"/>
         <v>191353.82701716496</v>
       </c>
-      <c r="AH12" s="15">
+      <c r="AH12" s="14">
         <f t="shared" si="7"/>
         <v>192638.46240531027</v>
       </c>
-      <c r="AI12" s="15">
+      <c r="AI12" s="14">
         <f t="shared" si="7"/>
         <v>193921.49650285026</v>
       </c>
-      <c r="AJ12" s="15">
+      <c r="AJ12" s="14">
         <f t="shared" si="7"/>
         <v>195205.73156834426</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" ref="F13:AJ13" si="8">($B11+$C11)*F$3</f>
         <v>3835.0000000000005</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f t="shared" si="8"/>
         <v>3876.5966224583285</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="8"/>
         <v>3918.0919873157368</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f t="shared" si="8"/>
         <v>3959.4253400116704</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f t="shared" si="8"/>
         <v>4000.586554786039</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <f t="shared" si="8"/>
         <v>4041.5148770782894</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <f t="shared" si="8"/>
         <v>4082.1900553682376</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <f t="shared" si="8"/>
         <v>4122.5513350953306</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <f t="shared" si="8"/>
         <v>4162.5784647393848</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <f t="shared" si="8"/>
         <v>4202.2106897398462</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="14">
         <f t="shared" si="8"/>
         <v>4241.4277585765321</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="14">
         <f t="shared" si="8"/>
         <v>4280.1992939691663</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <f t="shared" si="8"/>
         <v>4318.4949186374715</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="14">
         <f t="shared" si="8"/>
         <v>4356.3146325814487</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="14">
         <f t="shared" si="8"/>
         <v>4393.6381842809133</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="14">
         <f t="shared" si="8"/>
         <v>4430.4858252560489</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <f t="shared" si="8"/>
         <v>4466.8676812669482</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="14">
         <f t="shared" si="8"/>
         <v>4502.7736265535195</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="14">
         <f t="shared" si="8"/>
         <v>4538.2239126359455</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="14">
         <f t="shared" si="8"/>
         <v>4573.2387910344114</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="14">
         <f t="shared" si="8"/>
         <v>4607.8081359888265</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="14">
         <f t="shared" si="8"/>
         <v>4641.9521990193725</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="14">
         <f t="shared" si="8"/>
         <v>4675.6608543659586</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="14">
         <f t="shared" si="8"/>
         <v>4708.9442277886774</v>
       </c>
-      <c r="AD13" s="15">
+      <c r="AD13" s="14">
         <f t="shared" si="8"/>
         <v>4741.9744572090931</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AE13" s="14">
         <f t="shared" si="8"/>
         <v>4774.8325487079428</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="14">
         <f t="shared" si="8"/>
         <v>4807.5286280453192</v>
       </c>
-      <c r="AG13" s="15">
+      <c r="AG13" s="14">
         <f t="shared" si="8"/>
         <v>4840.1031982615914</v>
       </c>
-      <c r="AH13" s="15">
+      <c r="AH13" s="14">
         <f t="shared" si="8"/>
         <v>4872.5967623971255</v>
       </c>
-      <c r="AI13" s="15">
+      <c r="AI13" s="14">
         <f t="shared" si="8"/>
         <v>4905.0498234922916</v>
       </c>
-      <c r="AJ13" s="15">
+      <c r="AJ13" s="14">
         <f t="shared" si="8"/>
         <v>4937.5332618677339</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>'totals by age'!C29</f>
         <v>8.1093740511225462E-3</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="F15" s="15">
+        <v>2018</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6322,1146 +6349,1214 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B1" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="21">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="21">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="E1" s="21">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="F1" s="21">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="G1" s="21">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="H1" s="21">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="I1" s="21">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="J1" s="21">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="K1" s="21">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="L1" s="21">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="M1" s="21">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="N1" s="21">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="O1" s="21">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="P1" s="21">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="Q1" s="21">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="R1" s="21">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="S1" s="21">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="T1" s="21">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="U1" s="21">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="V1" s="21">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="W1" s="21">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="X1" s="21">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="Y1" s="21">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Z1" s="21">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="AA1" s="21">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AB1" s="21">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AC1" s="21">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AD1" s="21">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AE1" s="21">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AF1" s="21">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AG1" s="21">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AH1" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
+        <f>Males!D13</f>
+        <v>144948</v>
+      </c>
+      <c r="C2" s="21">
+        <f>Males!E13</f>
+        <v>152282</v>
+      </c>
+      <c r="D2" s="21">
         <f>'Totals Calculation'!F6</f>
         <v>160899.00000000003</v>
       </c>
-      <c r="C2" s="22">
+      <c r="E2" s="21">
         <f>'Totals Calculation'!G6</f>
         <v>162644.2033785978</v>
       </c>
-      <c r="D2" s="22">
+      <c r="F2" s="21">
         <f>'Totals Calculation'!H6</f>
         <v>164385.1584529634</v>
       </c>
-      <c r="E2" s="22">
+      <c r="G2" s="21">
         <f>'Totals Calculation'!I6</f>
         <v>166119.31624055741</v>
       </c>
-      <c r="F2" s="22">
+      <c r="H2" s="21">
         <f>'Totals Calculation'!J6</f>
         <v>167846.25191095669</v>
       </c>
-      <c r="G2" s="22">
+      <c r="I2" s="21">
         <f>'Totals Calculation'!K6</f>
         <v>169563.41648162183</v>
       </c>
-      <c r="H2" s="22">
+      <c r="J2" s="21">
         <f>'Totals Calculation'!L6</f>
         <v>171269.9602917064</v>
       </c>
-      <c r="I2" s="22">
+      <c r="K2" s="21">
         <f>'Totals Calculation'!M6</f>
         <v>172963.33435867107</v>
       </c>
-      <c r="J2" s="22">
+      <c r="L2" s="21">
         <f>'Totals Calculation'!N6</f>
         <v>174642.68902166942</v>
       </c>
-      <c r="K2" s="22">
+      <c r="M2" s="21">
         <f>'Totals Calculation'!O6</f>
         <v>176305.47529816205</v>
       </c>
-      <c r="L2" s="22">
+      <c r="N2" s="21">
         <f>'Totals Calculation'!P6</f>
         <v>177950.84352730261</v>
       </c>
-      <c r="M2" s="22">
+      <c r="O2" s="21">
         <f>'Totals Calculation'!Q6</f>
         <v>179577.51921782133</v>
       </c>
-      <c r="N2" s="22">
+      <c r="P2" s="21">
         <f>'Totals Calculation'!R6</f>
         <v>181184.22787844864</v>
       </c>
-      <c r="O2" s="22">
+      <c r="Q2" s="21">
         <f>'Totals Calculation'!S6</f>
         <v>182770.96950918451</v>
       </c>
-      <c r="P2" s="22">
+      <c r="R2" s="21">
         <f>'Totals Calculation'!T6</f>
         <v>184336.89444918244</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="S2" s="21">
         <f>'Totals Calculation'!U6</f>
         <v>185882.85235928893</v>
       </c>
-      <c r="R2" s="22">
+      <c r="T2" s="21">
         <f>'Totals Calculation'!V6</f>
         <v>187409.26806992714</v>
       </c>
-      <c r="S2" s="22">
+      <c r="U2" s="21">
         <f>'Totals Calculation'!W6</f>
         <v>188915.71675067398</v>
       </c>
-      <c r="T2" s="22">
+      <c r="V2" s="21">
         <f>'Totals Calculation'!X6</f>
         <v>190403.04806237575</v>
       </c>
-      <c r="U2" s="22">
+      <c r="W2" s="21">
         <f>'Totals Calculation'!Y6</f>
         <v>191872.11166587897</v>
       </c>
-      <c r="V2" s="22">
+      <c r="X2" s="21">
         <f>'Totals Calculation'!Z6</f>
         <v>193322.48273076041</v>
       </c>
-      <c r="W2" s="22">
+      <c r="Y2" s="21">
         <f>'Totals Calculation'!AA6</f>
         <v>194755.01091786649</v>
       </c>
-      <c r="X2" s="22">
+      <c r="Z2" s="21">
         <f>'Totals Calculation'!AB6</f>
         <v>196169.27139677404</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="AA2" s="21">
         <f>'Totals Calculation'!AC6</f>
         <v>197565.68899790623</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="AB2" s="21">
         <f>'Totals Calculation'!AD6</f>
         <v>198951.48583845785</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AC2" s="21">
         <f>'Totals Calculation'!AE6</f>
         <v>200330.06056181467</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AD2" s="21">
         <f>'Totals Calculation'!AF6</f>
         <v>201701.83799839995</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AE2" s="21">
         <f>'Totals Calculation'!AG6</f>
         <v>203068.51746990657</v>
       </c>
-      <c r="AD2" s="22">
+      <c r="AF2" s="21">
         <f>'Totals Calculation'!AH6</f>
         <v>204431.7982980274</v>
       </c>
-      <c r="AE2" s="22">
+      <c r="AG2" s="21">
         <f>'Totals Calculation'!AI6</f>
         <v>205793.37980445536</v>
       </c>
-      <c r="AF2" s="22">
+      <c r="AH2" s="21">
         <f>'Totals Calculation'!AJ6</f>
         <v>207156.23580215295</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
+        <f>Females!D13</f>
+        <v>137943</v>
+      </c>
+      <c r="C3" s="21">
+        <f>Females!E13</f>
+        <v>144638</v>
+      </c>
+      <c r="D3" s="21">
         <f>'Totals Calculation'!F7</f>
         <v>146233</v>
       </c>
-      <c r="C3" s="22">
+      <c r="E3" s="21">
         <f>'Totals Calculation'!G7</f>
         <v>147819.1274816033</v>
       </c>
-      <c r="D3" s="22">
+      <c r="F3" s="21">
         <f>'Totals Calculation'!H7</f>
         <v>149401.39389338775</v>
       </c>
-      <c r="E3" s="22">
+      <c r="G3" s="21">
         <f>'Totals Calculation'!I7</f>
         <v>150977.48259346193</v>
       </c>
-      <c r="F3" s="22">
+      <c r="H3" s="21">
         <f>'Totals Calculation'!J7</f>
         <v>152547.00747484402</v>
       </c>
-      <c r="G3" s="22">
+      <c r="I3" s="21">
         <f>'Totals Calculation'!K7</f>
         <v>154107.65189564263</v>
       </c>
-      <c r="H3" s="22">
+      <c r="J3" s="21">
         <f>'Totals Calculation'!L7</f>
         <v>155658.64364189398</v>
       </c>
-      <c r="I3" s="22">
+      <c r="K3" s="21">
         <f>'Totals Calculation'!M7</f>
         <v>157197.66607170674</v>
       </c>
-      <c r="J3" s="22">
+      <c r="L3" s="21">
         <f>'Totals Calculation'!N7</f>
         <v>158723.94697111717</v>
       </c>
-      <c r="K3" s="22">
+      <c r="M3" s="21">
         <f>'Totals Calculation'!O7</f>
         <v>160235.16969823386</v>
       </c>
-      <c r="L3" s="22">
+      <c r="N3" s="21">
         <f>'Totals Calculation'!P7</f>
         <v>161730.56203909309</v>
       </c>
-      <c r="M3" s="22">
+      <c r="O3" s="21">
         <f>'Totals Calculation'!Q7</f>
         <v>163208.96567274915</v>
       </c>
-      <c r="N3" s="22">
+      <c r="P3" s="21">
         <f>'Totals Calculation'!R7</f>
         <v>164669.22227825641</v>
       </c>
-      <c r="O3" s="22">
+      <c r="Q3" s="21">
         <f>'Totals Calculation'!S7</f>
         <v>166111.33185561484</v>
       </c>
-      <c r="P3" s="22">
+      <c r="R3" s="21">
         <f>'Totals Calculation'!T7</f>
         <v>167534.52219086068</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="S3" s="21">
         <f>'Totals Calculation'!U7</f>
         <v>168939.56549795769</v>
       </c>
-      <c r="R3" s="22">
+      <c r="T3" s="21">
         <f>'Totals Calculation'!V7</f>
         <v>170326.84788388773</v>
       </c>
-      <c r="S3" s="22">
+      <c r="U3" s="21">
         <f>'Totals Calculation'!W7</f>
         <v>171695.98324166902</v>
       </c>
-      <c r="T3" s="22">
+      <c r="V3" s="21">
         <f>'Totals Calculation'!X7</f>
         <v>173047.74378526522</v>
       </c>
-      <c r="U3" s="22">
+      <c r="W3" s="21">
         <f>'Totals Calculation'!Y7</f>
         <v>174382.90172864016</v>
       </c>
-      <c r="V3" s="22">
+      <c r="X3" s="21">
         <f>'Totals Calculation'!Z7</f>
         <v>175701.07096481198</v>
       </c>
-      <c r="W3" s="22">
+      <c r="Y3" s="21">
         <f>'Totals Calculation'!AA7</f>
         <v>177003.0237077444</v>
       </c>
-      <c r="X3" s="22">
+      <c r="Z3" s="21">
         <f>'Totals Calculation'!AB7</f>
         <v>178288.37385045559</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="AA3" s="21">
         <f>'Totals Calculation'!AC7</f>
         <v>179557.50749992739</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="AB3" s="21">
         <f>'Totals Calculation'!AD7</f>
         <v>180816.98847485194</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AC3" s="21">
         <f>'Totals Calculation'!AE7</f>
         <v>182069.90563108434</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AD3" s="21">
         <f>'Totals Calculation'!AF7</f>
         <v>183316.64507560653</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AE3" s="21">
         <f>'Totals Calculation'!AG7</f>
         <v>184558.75123634606</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AF3" s="21">
         <f>'Totals Calculation'!AH7</f>
         <v>185797.76854123044</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AG3" s="21">
         <f>'Totals Calculation'!AI7</f>
         <v>187035.24141818727</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AH3" s="21">
         <f>'Totals Calculation'!AJ7</f>
         <v>188273.87261608979</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
+        <f>SUM(Females!D15:D18,Males!D15:D18)</f>
+        <v>1578</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(Females!E15:E18,Males!E15:E18)</f>
+        <v>1651</v>
+      </c>
+      <c r="D4" s="21">
         <f>'Totals Calculation'!F8</f>
         <v>2910</v>
       </c>
-      <c r="C4" s="22">
+      <c r="E4" s="21">
         <f>'Totals Calculation'!G8</f>
         <v>2941.5635388145333</v>
       </c>
-      <c r="D4" s="22">
+      <c r="F4" s="21">
         <f>'Totals Calculation'!H8</f>
         <v>2973.0502433086813</v>
       </c>
-      <c r="E4" s="22">
+      <c r="G4" s="21">
         <f>'Totals Calculation'!I8</f>
         <v>3004.4140128902109</v>
       </c>
-      <c r="F4" s="22">
+      <c r="H4" s="21">
         <f>'Totals Calculation'!J8</f>
         <v>3035.6471641270855</v>
       </c>
-      <c r="G4" s="22">
+      <c r="I4" s="21">
         <f>'Totals Calculation'!K8</f>
         <v>3066.7035964270722</v>
       </c>
-      <c r="H4" s="22">
+      <c r="J4" s="21">
         <f>'Totals Calculation'!L8</f>
         <v>3097.567942926094</v>
       </c>
-      <c r="I4" s="22">
+      <c r="K4" s="21">
         <f>'Totals Calculation'!M8</f>
         <v>3128.194103031919</v>
       </c>
-      <c r="J4" s="22">
+      <c r="L4" s="21">
         <f>'Totals Calculation'!N8</f>
         <v>3158.5667098804711</v>
       </c>
-      <c r="K4" s="22">
+      <c r="M4" s="21">
         <f>'Totals Calculation'!O8</f>
         <v>3188.6396628795178</v>
       </c>
-      <c r="L4" s="22">
+      <c r="N4" s="21">
         <f>'Totals Calculation'!P8</f>
         <v>3218.3975951649822</v>
       </c>
-      <c r="M4" s="22">
+      <c r="O4" s="21">
         <f>'Totals Calculation'!Q8</f>
         <v>3247.8174564407486</v>
       </c>
-      <c r="N4" s="22">
+      <c r="P4" s="21">
         <f>'Totals Calculation'!R8</f>
         <v>3276.8761964107021</v>
       </c>
-      <c r="O4" s="22">
+      <c r="Q4" s="21">
         <f>'Totals Calculation'!S8</f>
         <v>3305.5738150748407</v>
       </c>
-      <c r="P4" s="22">
+      <c r="R4" s="21">
         <f>'Totals Calculation'!T8</f>
         <v>3333.8949455690886</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="S4" s="21">
         <f>'Totals Calculation'!U8</f>
         <v>3361.854954757523</v>
       </c>
-      <c r="R4" s="22">
+      <c r="T4" s="21">
         <f>'Totals Calculation'!V8</f>
         <v>3389.4615260721816</v>
       </c>
-      <c r="S4" s="22">
+      <c r="U4" s="21">
         <f>'Totals Calculation'!W8</f>
         <v>3416.7069760810273</v>
       </c>
-      <c r="T4" s="22">
+      <c r="V4" s="21">
         <f>'Totals Calculation'!X8</f>
         <v>3443.6066716481355</v>
       </c>
-      <c r="U4" s="22">
+      <c r="W4" s="21">
         <f>'Totals Calculation'!Y8</f>
         <v>3470.1759796375845</v>
       </c>
-      <c r="V4" s="22">
+      <c r="X4" s="21">
         <f>'Totals Calculation'!Z8</f>
         <v>3496.407216617336</v>
       </c>
-      <c r="W4" s="22">
+      <c r="Y4" s="21">
         <f>'Totals Calculation'!AA8</f>
         <v>3522.3157494514658</v>
       </c>
-      <c r="X4" s="22">
+      <c r="Z4" s="21">
         <f>'Totals Calculation'!AB8</f>
         <v>3547.8938947079373</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="AA4" s="21">
         <f>'Totals Calculation'!AC8</f>
         <v>3573.1493358187872</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="AB4" s="21">
         <f>'Totals Calculation'!AD8</f>
         <v>3598.2126911286723</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AC4" s="21">
         <f>'Totals Calculation'!AE8</f>
         <v>3623.145428093901</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AD4" s="21">
         <f>'Totals Calculation'!AF8</f>
         <v>3647.9552301465128</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AE4" s="21">
         <f>'Totals Calculation'!AG8</f>
         <v>3672.6728310146618</v>
       </c>
-      <c r="AD4" s="22">
+      <c r="AF4" s="21">
         <f>'Totals Calculation'!AH8</f>
         <v>3697.3289644265014</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AG4" s="21">
         <f>'Totals Calculation'!AI8</f>
         <v>3721.9543641101868</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AH4" s="21">
         <f>'Totals Calculation'!AJ8</f>
         <v>3746.6028140899884</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
+        <f>SUM(Males!D19:D22,Females!D19:D22)</f>
+        <v>8149</v>
+      </c>
+      <c r="C5" s="21">
+        <f>SUM(Males!E19:E22,Females!E19:E22)</f>
+        <v>7858</v>
+      </c>
+      <c r="D5" s="21">
         <f>'Totals Calculation'!F9</f>
         <v>8117</v>
       </c>
-      <c r="C5" s="22">
+      <c r="E5" s="21">
         <f>'Totals Calculation'!G9</f>
         <v>8205.0416647964139</v>
       </c>
-      <c r="D5" s="22">
+      <c r="F5" s="21">
         <f>'Totals Calculation'!H9</f>
         <v>8292.8690120056926</v>
       </c>
-      <c r="E5" s="22">
+      <c r="G5" s="21">
         <f>'Totals Calculation'!I9</f>
         <v>8380.3534510755471</v>
       </c>
-      <c r="F5" s="22">
+      <c r="H5" s="21">
         <f>'Totals Calculation'!J9</f>
         <v>8467.4735502472686</v>
       </c>
-      <c r="G5" s="22">
+      <c r="I5" s="21">
         <f>'Totals Calculation'!K9</f>
         <v>8554.1007189685715</v>
       </c>
-      <c r="H5" s="22">
+      <c r="J5" s="21">
         <f>'Totals Calculation'!L9</f>
         <v>8640.1920937220293</v>
       </c>
-      <c r="I5" s="22">
+      <c r="K5" s="21">
         <f>'Totals Calculation'!M9</f>
         <v>8725.6190839553565</v>
       </c>
-      <c r="J5" s="22">
+      <c r="L5" s="21">
         <f>'Totals Calculation'!N9</f>
         <v>8810.3388261511282</v>
       </c>
-      <c r="K5" s="22">
+      <c r="M5" s="21">
         <f>'Totals Calculation'!O9</f>
         <v>8894.2227297570607</v>
       </c>
-      <c r="L5" s="22">
+      <c r="N5" s="21">
         <f>'Totals Calculation'!P9</f>
         <v>8977.2279312557257</v>
       </c>
-      <c r="M5" s="22">
+      <c r="O5" s="21">
         <f>'Totals Calculation'!Q9</f>
         <v>9059.2901353709822</v>
       </c>
-      <c r="N5" s="22">
+      <c r="P5" s="21">
         <f>'Totals Calculation'!R9</f>
         <v>9140.3450468266892</v>
       </c>
-      <c r="O5" s="22">
+      <c r="Q5" s="21">
         <f>'Totals Calculation'!S9</f>
         <v>9220.3926656228468</v>
       </c>
-      <c r="P5" s="22">
+      <c r="R5" s="21">
         <f>'Totals Calculation'!T9</f>
         <v>9299.3901282420247</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="S5" s="21">
         <f>'Totals Calculation'!U9</f>
         <v>9377.380298201655</v>
       </c>
-      <c r="R5" s="22">
+      <c r="T5" s="21">
         <f>'Totals Calculation'!V9</f>
         <v>9454.3846072604465</v>
       </c>
-      <c r="S5" s="22">
+      <c r="U5" s="21">
         <f>'Totals Calculation'!W9</f>
         <v>9530.3816236596904</v>
       </c>
-      <c r="T5" s="22">
+      <c r="V5" s="21">
         <f>'Totals Calculation'!X9</f>
         <v>9605.4142109168097</v>
       </c>
-      <c r="U5" s="22">
+      <c r="W5" s="21">
         <f>'Totals Calculation'!Y9</f>
         <v>9679.5252325492347</v>
       </c>
-      <c r="V5" s="22">
+      <c r="X5" s="21">
         <f>'Totals Calculation'!Z9</f>
         <v>9752.6932567982531</v>
       </c>
-      <c r="W5" s="22">
+      <c r="Y5" s="21">
         <f>'Totals Calculation'!AA9</f>
         <v>9824.9611471812877</v>
       </c>
-      <c r="X5" s="22">
+      <c r="Z5" s="21">
         <f>'Totals Calculation'!AB9</f>
         <v>9896.3074719396318</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="AA5" s="21">
         <f>'Totals Calculation'!AC9</f>
         <v>9966.7536628319922</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="AB5" s="21">
         <f>'Totals Calculation'!AD9</f>
         <v>10036.664059756507</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AC5" s="21">
         <f>'Totals Calculation'!AE9</f>
         <v>10106.210116782886</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AD5" s="21">
         <f>'Totals Calculation'!AF9</f>
         <v>10175.413265669844</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AE5" s="21">
         <f>'Totals Calculation'!AG9</f>
         <v>10244.359233452238</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AF5" s="21">
         <f>'Totals Calculation'!AH9</f>
         <v>10313.133747164919</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AG5" s="21">
         <f>'Totals Calculation'!AI9</f>
         <v>10381.822533842746</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AH5" s="21">
         <f>'Totals Calculation'!AJ9</f>
         <v>10450.575615796713</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
+        <f>SUM(Females!D23:D26,Males!D23:D26)</f>
+        <v>28708</v>
+      </c>
+      <c r="C6" s="21">
+        <f>SUM(Females!E23:E26,Males!E23:E26)</f>
+        <v>28139</v>
+      </c>
+      <c r="D6" s="21">
         <f>'Totals Calculation'!F10</f>
         <v>28290</v>
       </c>
-      <c r="C6" s="22">
+      <c r="E6" s="21">
         <f>'Totals Calculation'!G10</f>
         <v>28596.849660846441</v>
       </c>
-      <c r="D6" s="22">
+      <c r="F6" s="21">
         <f>'Totals Calculation'!H10</f>
         <v>28902.952365361714</v>
       </c>
-      <c r="E6" s="22">
+      <c r="G6" s="21">
         <f>'Totals Calculation'!I10</f>
         <v>29207.859939747101</v>
       </c>
-      <c r="F6" s="22">
+      <c r="H6" s="21">
         <f>'Totals Calculation'!J10</f>
         <v>29511.497688369502</v>
       </c>
-      <c r="G6" s="22">
+      <c r="I6" s="21">
         <f>'Totals Calculation'!K10</f>
         <v>29813.417437430195</v>
       </c>
-      <c r="H6" s="22">
+      <c r="J6" s="21">
         <f>'Totals Calculation'!L10</f>
         <v>30113.469795662953</v>
       </c>
-      <c r="I6" s="22">
+      <c r="K6" s="21">
         <f>'Totals Calculation'!M10</f>
         <v>30411.20658926907</v>
       </c>
-      <c r="J6" s="22">
+      <c r="L6" s="21">
         <f>'Totals Calculation'!N10</f>
         <v>30706.478426982314</v>
       </c>
-      <c r="K6" s="22">
+      <c r="M6" s="21">
         <f>'Totals Calculation'!O10</f>
         <v>30998.837135003974</v>
       </c>
-      <c r="L6" s="22">
+      <c r="N6" s="21">
         <f>'Totals Calculation'!P10</f>
         <v>31288.133322067821</v>
       </c>
-      <c r="M6" s="22">
+      <c r="O6" s="21">
         <f>'Totals Calculation'!Q10</f>
         <v>31574.142901274496</v>
       </c>
-      <c r="N6" s="22">
+      <c r="P6" s="21">
         <f>'Totals Calculation'!R10</f>
         <v>31856.64178572466</v>
       </c>
-      <c r="O6" s="22">
+      <c r="Q6" s="21">
         <f>'Totals Calculation'!S10</f>
         <v>32135.629975418298</v>
       </c>
-      <c r="P6" s="22">
+      <c r="R6" s="21">
         <f>'Totals Calculation'!T10</f>
         <v>32410.958079089181</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="S6" s="21">
         <f>'Totals Calculation'!U10</f>
         <v>32682.77548800355</v>
       </c>
-      <c r="R6" s="22">
+      <c r="T6" s="21">
         <f>'Totals Calculation'!V10</f>
         <v>32951.156897794506</v>
       </c>
-      <c r="S6" s="22">
+      <c r="U6" s="21">
         <f>'Totals Calculation'!W10</f>
         <v>33216.027612828955</v>
       </c>
-      <c r="T6" s="22">
+      <c r="V6" s="21">
         <f>'Totals Calculation'!X10</f>
         <v>33477.537024373109</v>
       </c>
-      <c r="U6" s="22">
+      <c r="W6" s="21">
         <f>'Totals Calculation'!Y10</f>
         <v>33735.834523693215</v>
       </c>
-      <c r="V6" s="22">
+      <c r="X6" s="21">
         <f>'Totals Calculation'!Z10</f>
         <v>33990.84541515616</v>
       </c>
-      <c r="W6" s="22">
+      <c r="Y6" s="21">
         <f>'Totals Calculation'!AA10</f>
         <v>34242.719090028171</v>
       </c>
-      <c r="X6" s="22">
+      <c r="Z6" s="21">
         <f>'Totals Calculation'!AB10</f>
         <v>34491.380852676128</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="AA6" s="21">
         <f>'Totals Calculation'!AC10</f>
         <v>34736.905398733157</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="AB6" s="21">
         <f>'Totals Calculation'!AD10</f>
         <v>34980.562553962249</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AC6" s="21">
         <f>'Totals Calculation'!AE10</f>
         <v>35222.949883428337</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AD6" s="21">
         <f>'Totals Calculation'!AF10</f>
         <v>35464.142082764549</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AE6" s="21">
         <f>'Totals Calculation'!AG10</f>
         <v>35704.437934503359</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AF6" s="21">
         <f>'Totals Calculation'!AH10</f>
         <v>35944.136221177228</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AG6" s="21">
         <f>'Totals Calculation'!AI10</f>
         <v>36183.535725318623</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AH6" s="21">
         <f>'Totals Calculation'!AJ10</f>
         <v>36423.159316359372</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
+        <f>SUM(Females!D27:D30,Males!D27:D30)</f>
+        <v>102837</v>
+      </c>
+      <c r="C7" s="21">
+        <f>SUM(Females!E27:E30,Males!E27:E30)</f>
+        <v>108594</v>
+      </c>
+      <c r="D7" s="21">
         <f>'Totals Calculation'!F11</f>
         <v>112363</v>
       </c>
-      <c r="C7" s="22">
+      <c r="E7" s="21">
         <f>'Totals Calculation'!G11</f>
         <v>113581.75392158673</v>
       </c>
-      <c r="D7" s="22">
+      <c r="F7" s="21">
         <f>'Totals Calculation'!H11</f>
         <v>114797.54106147538</v>
       </c>
-      <c r="E7" s="22">
+      <c r="G7" s="21">
         <f>'Totals Calculation'!I11</f>
         <v>116008.58135064701</v>
       </c>
-      <c r="F7" s="22">
+      <c r="H7" s="21">
         <f>'Totals Calculation'!J11</f>
         <v>117214.57811093186</v>
       </c>
-      <c r="G7" s="22">
+      <c r="I7" s="21">
         <f>'Totals Calculation'!K11</f>
         <v>118413.75127331103</v>
       </c>
-      <c r="H7" s="22">
+      <c r="J7" s="21">
         <f>'Totals Calculation'!L11</f>
         <v>119605.50748144492</v>
       </c>
-      <c r="I7" s="22">
+      <c r="K7" s="21">
         <f>'Totals Calculation'!M11</f>
         <v>120788.06666631461</v>
       </c>
-      <c r="J7" s="22">
+      <c r="L7" s="21">
         <f>'Totals Calculation'!N11</f>
         <v>121960.83547158055</v>
       </c>
-      <c r="K7" s="22">
+      <c r="M7" s="21">
         <f>'Totals Calculation'!O11</f>
         <v>123122.03382822381</v>
       </c>
-      <c r="L7" s="22">
+      <c r="N7" s="21">
         <f>'Totals Calculation'!P11</f>
         <v>124271.0683799048</v>
       </c>
-      <c r="M7" s="22">
+      <c r="O7" s="21">
         <f>'Totals Calculation'!Q11</f>
         <v>125407.04909211404</v>
       </c>
-      <c r="N7" s="22">
+      <c r="P7" s="21">
         <f>'Totals Calculation'!R11</f>
         <v>126529.08593034217</v>
       </c>
-      <c r="O7" s="22">
+      <c r="Q7" s="21">
         <f>'Totals Calculation'!S11</f>
         <v>127637.17889458913</v>
       </c>
-      <c r="P7" s="22">
+      <c r="R7" s="21">
         <f>'Totals Calculation'!T11</f>
         <v>128730.7346285153</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="S7" s="21">
         <f>'Totals Calculation'!U11</f>
         <v>129810.34648846033</v>
       </c>
-      <c r="R7" s="22">
+      <c r="T7" s="21">
         <f>'Totals Calculation'!V11</f>
         <v>130876.311152594</v>
       </c>
-      <c r="S7" s="22">
+      <c r="U7" s="21">
         <f>'Totals Calculation'!W11</f>
         <v>131928.33194274656</v>
       </c>
-      <c r="T7" s="22">
+      <c r="V7" s="21">
         <f>'Totals Calculation'!X11</f>
         <v>132967.00221525755</v>
       </c>
-      <c r="U7" s="22">
+      <c r="W7" s="21">
         <f>'Totals Calculation'!Y11</f>
         <v>133992.91532646664</v>
       </c>
-      <c r="V7" s="22">
+      <c r="X7" s="21">
         <f>'Totals Calculation'!Z11</f>
         <v>135005.77459820404</v>
       </c>
-      <c r="W7" s="22">
+      <c r="Y7" s="21">
         <f>'Totals Calculation'!AA11</f>
         <v>136006.1733868093</v>
       </c>
-      <c r="X7" s="22">
+      <c r="Z7" s="21">
         <f>'Totals Calculation'!AB11</f>
         <v>136993.81501411271</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="AA7" s="21">
         <f>'Totals Calculation'!AC11</f>
         <v>137968.99615828399</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="AB7" s="21">
         <f>'Totals Calculation'!AD11</f>
         <v>138936.76034820997</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AC7" s="21">
         <f>'Totals Calculation'!AE11</f>
         <v>139899.48100924914</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AD7" s="21">
         <f>'Totals Calculation'!AF11</f>
         <v>140857.45481957134</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AE7" s="21">
         <f>'Totals Calculation'!AG11</f>
         <v>141811.86849185583</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AF7" s="21">
         <f>'Totals Calculation'!AH11</f>
         <v>142763.90873878179</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AG7" s="21">
         <f>'Totals Calculation'!AI11</f>
         <v>143714.76227302852</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AH7" s="21">
         <f>'Totals Calculation'!AJ11</f>
         <v>144666.50584178467</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
+        <f>SUM(Females!D31:D34,Males!D31:D34)</f>
+        <v>136936</v>
+      </c>
+      <c r="C8" s="21">
+        <f>SUM(Females!E31:E34,Males!E31:E34)</f>
+        <v>145733</v>
+      </c>
+      <c r="D8" s="21">
         <f>'Totals Calculation'!F12</f>
         <v>151617</v>
       </c>
-      <c r="C8" s="22">
+      <c r="E8" s="21">
         <f>'Totals Calculation'!G12</f>
         <v>153261.52545169866</v>
       </c>
-      <c r="D8" s="22">
+      <c r="F8" s="21">
         <f>'Totals Calculation'!H12</f>
         <v>154902.04767688396</v>
       </c>
-      <c r="E8" s="22">
+      <c r="G8" s="21">
         <f>'Totals Calculation'!I12</f>
         <v>156536.16473964782</v>
       </c>
-      <c r="F8" s="22">
+      <c r="H8" s="21">
         <f>'Totals Calculation'!J12</f>
         <v>158163.47631733894</v>
       </c>
-      <c r="G8" s="22">
+      <c r="I8" s="21">
         <f>'Totals Calculation'!K12</f>
         <v>159781.58047404929</v>
       </c>
-      <c r="H8" s="22">
+      <c r="J8" s="21">
         <f>'Totals Calculation'!L12</f>
         <v>161389.67656447616</v>
       </c>
-      <c r="I8" s="22">
+      <c r="K8" s="21">
         <f>'Totals Calculation'!M12</f>
         <v>162985.36265271151</v>
       </c>
-      <c r="J8" s="22">
+      <c r="L8" s="21">
         <f>'Totals Calculation'!N12</f>
         <v>164567.83809345274</v>
       </c>
-      <c r="K8" s="22">
+      <c r="M8" s="21">
         <f>'Totals Calculation'!O12</f>
         <v>166134.70095079171</v>
       </c>
-      <c r="L8" s="22">
+      <c r="N8" s="21">
         <f>'Totals Calculation'!P12</f>
         <v>167685.15057942583</v>
       </c>
-      <c r="M8" s="22">
+      <c r="O8" s="21">
         <f>'Totals Calculation'!Q12</f>
         <v>169217.98601140105</v>
       </c>
-      <c r="N8" s="22">
+      <c r="P8" s="21">
         <f>'Totals Calculation'!R12</f>
         <v>170732.00627876338</v>
       </c>
-      <c r="O8" s="22">
+      <c r="Q8" s="21">
         <f>'Totals Calculation'!S12</f>
         <v>172227.21138151278</v>
       </c>
-      <c r="P8" s="22">
+      <c r="R8" s="21">
         <f>'Totals Calculation'!T12</f>
         <v>173702.8006743466</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="S8" s="21">
         <f>'Totals Calculation'!U12</f>
         <v>175159.57480256748</v>
       </c>
-      <c r="R8" s="22">
+      <c r="T8" s="21">
         <f>'Totals Calculation'!V12</f>
         <v>176597.93408882679</v>
       </c>
-      <c r="S8" s="22">
+      <c r="U8" s="21">
         <f>'Totals Calculation'!W12</f>
         <v>178017.47821047323</v>
       </c>
-      <c r="T8" s="22">
+      <c r="V8" s="21">
         <f>'Totals Calculation'!X12</f>
         <v>179419.0078128094</v>
       </c>
-      <c r="U8" s="22">
+      <c r="W8" s="21">
         <f>'Totals Calculation'!Y12</f>
         <v>180803.32354113803</v>
       </c>
-      <c r="V8" s="22">
+      <c r="X8" s="21">
         <f>'Totals Calculation'!Z12</f>
         <v>182170.02507280777</v>
       </c>
-      <c r="W8" s="22">
+      <c r="Y8" s="21">
         <f>'Totals Calculation'!AA12</f>
         <v>183519.91305312127</v>
       </c>
-      <c r="X8" s="22">
+      <c r="Z8" s="21">
         <f>'Totals Calculation'!AB12</f>
         <v>184852.58715942726</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="AA8" s="21">
         <f>'Totals Calculation'!AC12</f>
         <v>186168.44771437702</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="AB8" s="21">
         <f>'Totals Calculation'!AD12</f>
         <v>187474.3002030433</v>
       </c>
-      <c r="AA8" s="22">
+      <c r="AC8" s="21">
         <f>'Totals Calculation'!AE12</f>
         <v>188773.34720663677</v>
       </c>
-      <c r="AB8" s="22">
+      <c r="AD8" s="21">
         <f>'Totals Calculation'!AF12</f>
         <v>190065.98904780889</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AE8" s="21">
         <f>'Totals Calculation'!AG12</f>
         <v>191353.82701716496</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AF8" s="21">
         <f>'Totals Calculation'!AH12</f>
         <v>192638.46240531027</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AG8" s="21">
         <f>'Totals Calculation'!AI12</f>
         <v>193921.49650285026</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AH8" s="21">
         <f>'Totals Calculation'!AJ12</f>
         <v>195205.73156834426</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
+        <f>SUM(Males!D35,Females!D35)</f>
+        <v>3099</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUM(Males!E35,Females!E35)</f>
+        <v>3405</v>
+      </c>
+      <c r="D9" s="21">
         <f>'Totals Calculation'!F13</f>
         <v>3835.0000000000005</v>
       </c>
-      <c r="C9" s="22">
+      <c r="E9" s="21">
         <f>'Totals Calculation'!G13</f>
         <v>3876.5966224583285</v>
       </c>
-      <c r="D9" s="22">
+      <c r="F9" s="21">
         <f>'Totals Calculation'!H13</f>
         <v>3918.0919873157368</v>
       </c>
-      <c r="E9" s="22">
+      <c r="G9" s="21">
         <f>'Totals Calculation'!I13</f>
         <v>3959.4253400116704</v>
       </c>
-      <c r="F9" s="22">
+      <c r="H9" s="21">
         <f>'Totals Calculation'!J13</f>
         <v>4000.586554786039</v>
       </c>
-      <c r="G9" s="22">
+      <c r="I9" s="21">
         <f>'Totals Calculation'!K13</f>
         <v>4041.5148770782894</v>
       </c>
-      <c r="H9" s="22">
+      <c r="J9" s="21">
         <f>'Totals Calculation'!L13</f>
         <v>4082.1900553682376</v>
       </c>
-      <c r="I9" s="22">
+      <c r="K9" s="21">
         <f>'Totals Calculation'!M13</f>
         <v>4122.5513350953306</v>
       </c>
-      <c r="J9" s="22">
+      <c r="L9" s="21">
         <f>'Totals Calculation'!N13</f>
         <v>4162.5784647393848</v>
       </c>
-      <c r="K9" s="22">
+      <c r="M9" s="21">
         <f>'Totals Calculation'!O13</f>
         <v>4202.2106897398462</v>
       </c>
-      <c r="L9" s="22">
+      <c r="N9" s="21">
         <f>'Totals Calculation'!P13</f>
         <v>4241.4277585765321</v>
       </c>
-      <c r="M9" s="22">
+      <c r="O9" s="21">
         <f>'Totals Calculation'!Q13</f>
         <v>4280.1992939691663</v>
       </c>
-      <c r="N9" s="22">
+      <c r="P9" s="21">
         <f>'Totals Calculation'!R13</f>
         <v>4318.4949186374715</v>
       </c>
-      <c r="O9" s="22">
+      <c r="Q9" s="21">
         <f>'Totals Calculation'!S13</f>
         <v>4356.3146325814487</v>
       </c>
-      <c r="P9" s="22">
+      <c r="R9" s="21">
         <f>'Totals Calculation'!T13</f>
         <v>4393.6381842809133</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="S9" s="21">
         <f>'Totals Calculation'!U13</f>
         <v>4430.4858252560489</v>
       </c>
-      <c r="R9" s="22">
+      <c r="T9" s="21">
         <f>'Totals Calculation'!V13</f>
         <v>4466.8676812669482</v>
       </c>
-      <c r="S9" s="22">
+      <c r="U9" s="21">
         <f>'Totals Calculation'!W13</f>
         <v>4502.7736265535195</v>
       </c>
-      <c r="T9" s="22">
+      <c r="V9" s="21">
         <f>'Totals Calculation'!X13</f>
         <v>4538.2239126359455</v>
       </c>
-      <c r="U9" s="22">
+      <c r="W9" s="21">
         <f>'Totals Calculation'!Y13</f>
         <v>4573.2387910344114</v>
       </c>
-      <c r="V9" s="22">
+      <c r="X9" s="21">
         <f>'Totals Calculation'!Z13</f>
         <v>4607.8081359888265</v>
       </c>
-      <c r="W9" s="22">
+      <c r="Y9" s="21">
         <f>'Totals Calculation'!AA13</f>
         <v>4641.9521990193725</v>
       </c>
-      <c r="X9" s="22">
+      <c r="Z9" s="21">
         <f>'Totals Calculation'!AB13</f>
         <v>4675.6608543659586</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="AA9" s="21">
         <f>'Totals Calculation'!AC13</f>
         <v>4708.9442277886774</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="AB9" s="21">
         <f>'Totals Calculation'!AD13</f>
         <v>4741.9744572090931</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AC9" s="21">
         <f>'Totals Calculation'!AE13</f>
         <v>4774.8325487079428</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AD9" s="21">
         <f>'Totals Calculation'!AF13</f>
         <v>4807.5286280453192</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AE9" s="21">
         <f>'Totals Calculation'!AG13</f>
         <v>4840.1031982615914</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AF9" s="21">
         <f>'Totals Calculation'!AH13</f>
         <v>4872.5967623971255</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AG9" s="21">
         <f>'Totals Calculation'!AI13</f>
         <v>4905.0498234922916</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AH9" s="21">
         <f>'Totals Calculation'!AJ13</f>
         <v>4937.5332618677339</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7469,34 +7564,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -7520,6 +7589,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7606,6 +7677,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -7740,26 +7823,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C06FBFAD-24D1-435A-AA32-C01751FC4626}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A25E2AD-B14B-420C-A79C-9824EA9C4E80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B23688-6351-4A4B-BE05-6B15D56D69D5}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51754610-9DEC-4D71-AB5E-7F6C384D251C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7776,4 +7870,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C06FBFAD-24D1-435A-AA32-C01751FC4626}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A25E2AD-B14B-420C-A79C-9824EA9C4E80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/add-outputs/BDbDT/BAU Deaths by Demographic Trait.xlsx
+++ b/InputData/add-outputs/BDbDT/BAU Deaths by Demographic Trait.xlsx
@@ -7591,8 +7591,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -7618,6 +7618,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7718,6 +7719,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7859,5 +7865,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51754610-9DEC-4D71-AB5E-7F6C384D251C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC24D3D0-CC8B-4FE2-AB77-F57AA25DC568}"/>
 </file>